--- a/TestDataProject/src/test/resources/testData/CustomerSuite.xlsx
+++ b/TestDataProject/src/test/resources/testData/CustomerSuite.xlsx
@@ -4,15 +4,76 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="15210" windowHeight="2745" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>jena</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Rahul Dash</t>
+  </si>
+  <si>
+    <t>Amit Jena</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,36 +403,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>6787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>